--- a/src/tests/telework-option.test-cases.xlsx
+++ b/src/tests/telework-option.test-cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/naoto/Documents/projects/code-for-japan/JibungotoPlanet-backend/src/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7395B77F-3B15-5A4B-9F04-22385A87675B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{375781AD-725A-2748-B19C-656797912707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2920" yWindow="2340" windowWidth="31640" windowHeight="19760" xr2:uid="{504EB999-7D82-6E4A-B2A0-71B74C50F3FE}"/>
+    <workbookView xWindow="11240" yWindow="6440" windowWidth="31640" windowHeight="19760" xr2:uid="{504EB999-7D82-6E4A-B2A0-71B74C50F3FE}"/>
   </bookViews>
   <sheets>
     <sheet name="answers" sheetId="24" r:id="rId1"/>
@@ -303,10 +303,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>carIntensityFactorKey</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>carChargingKey</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -364,10 +360,6 @@
   </si>
   <si>
     <t>motorbikeWeeklyTravelingTime</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>gasoline_driving-factor</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -592,6 +584,14 @@
   </si>
   <si>
     <t>hasTravelingTime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>carIntensityFactorFirstKey</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gasoline</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2297,7 +2297,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2326,7 +2326,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="18" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>55</v>
@@ -2338,21 +2338,21 @@
         <v>1</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>16</v>
@@ -2360,13 +2360,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>52</v>
@@ -2377,16 +2377,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>16</v>
@@ -2394,13 +2394,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D6" s="1">
         <v>5000</v>
@@ -2411,13 +2411,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D7" s="1">
         <v>5</v>
@@ -2428,13 +2428,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -2445,13 +2445,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -2462,13 +2462,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
@@ -2479,30 +2479,30 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D11" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>52</v>
@@ -2513,13 +2513,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D13" s="1">
         <v>20</v>
@@ -2530,13 +2530,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D14" s="1">
         <v>20</v>
@@ -2547,13 +2547,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D15" s="1">
         <v>20</v>
@@ -2564,13 +2564,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D16" s="1">
         <v>2</v>
@@ -2581,13 +2581,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D17" s="1">
         <v>20</v>
@@ -2598,13 +2598,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D18" s="2">
         <v>3</v>
@@ -2683,20 +2683,20 @@
         <v>4</v>
       </c>
       <c r="L1" s="40" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M1" s="41"/>
       <c r="N1" s="42"/>
     </row>
     <row r="2" spans="1:14" ht="21" thickBot="1">
       <c r="A2" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D2" s="34">
         <v>12000</v>
@@ -2728,13 +2728,13 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D3" s="36">
         <v>8870.1249855372098</v>
@@ -2761,7 +2761,7 @@
         <v>26</v>
       </c>
       <c r="L3" s="22" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="M3" s="23">
         <v>0.46885479128519697</v>
@@ -2770,13 +2770,13 @@
     </row>
     <row r="4" spans="1:14" ht="21" thickBot="1">
       <c r="A4" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D4" s="37">
         <v>1322.1265089812775</v>
@@ -2803,7 +2803,7 @@
         <v>28</v>
       </c>
       <c r="L4" s="22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M4" s="23">
         <v>0.1126667724957869</v>
@@ -2812,13 +2812,13 @@
     </row>
     <row r="5" spans="1:14" ht="21" thickBot="1">
       <c r="A5" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D5" s="35">
         <v>120</v>
@@ -2850,13 +2850,13 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D6" s="36">
         <v>1007.5222207949929</v>
@@ -2883,7 +2883,7 @@
         <v>32</v>
       </c>
       <c r="L6" s="22" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M6" s="23">
         <v>6.0224245611525062E-2</v>
@@ -2892,13 +2892,13 @@
     </row>
     <row r="7" spans="1:14" ht="21" thickBot="1">
       <c r="A7" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D7" s="37">
         <v>3931.6998473693543</v>
@@ -2925,7 +2925,7 @@
         <v>35</v>
       </c>
       <c r="L7" s="22" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M7" s="23">
         <v>0.21366003052612911</v>
@@ -2934,13 +2934,13 @@
     </row>
     <row r="8" spans="1:14" ht="21" thickBot="1">
       <c r="A8" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D8" s="35">
         <v>1352.9120938264666</v>
@@ -2967,7 +2967,7 @@
         <v>37</v>
       </c>
       <c r="L8" s="22" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M8" s="23">
         <v>0</v>
@@ -2976,13 +2976,13 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D9" s="36">
         <v>812.00907029275277</v>
@@ -3009,7 +3009,7 @@
         <v>39</v>
       </c>
       <c r="L9" s="22" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M9" s="23">
         <v>0.39627578416895709</v>
@@ -3018,13 +3018,13 @@
     </row>
     <row r="10" spans="1:14" ht="21" thickBot="1">
       <c r="A10" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D10" s="37">
         <v>186.06673339093351</v>
@@ -3051,7 +3051,7 @@
         <v>42</v>
       </c>
       <c r="L10" s="22" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="M10" s="23">
         <v>0.29523736711132975</v>
@@ -3060,13 +3060,13 @@
     </row>
     <row r="11" spans="1:14" ht="21" thickBot="1">
       <c r="A11" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D11" s="35">
         <v>168.93444059755035</v>
@@ -3094,25 +3094,25 @@
       </c>
       <c r="L11" s="9"/>
       <c r="M11" s="25" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="N11" s="7"/>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D12" s="36">
         <v>3.9401019680491568E-2</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>18</v>
@@ -3134,25 +3134,25 @@
       </c>
       <c r="L12" s="26"/>
       <c r="M12" s="27" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="N12" s="28"/>
     </row>
     <row r="13" spans="1:14" ht="21" thickBot="1">
       <c r="A13" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D13" s="37">
         <v>8.4096375861272953E-3</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>18</v>
@@ -3178,19 +3178,19 @@
     </row>
     <row r="14" spans="1:14" ht="21" thickBot="1">
       <c r="A14" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D14" s="35">
         <v>3.5897022020564959</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>18</v>
@@ -3216,13 +3216,13 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D15" s="36">
         <v>50.464717798556521</v>
@@ -3254,13 +3254,13 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D16" s="38">
         <v>1.4236275295555481</v>
@@ -3292,13 +3292,13 @@
     </row>
     <row r="17" spans="1:14" ht="21" thickBot="1">
       <c r="A17" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D17" s="37">
         <v>0.28660423338531854</v>
